--- a/SERNAC/Cotizador Medicamentos Bioequivalentes/precio promedio por tipo (farmacia).xlsx
+++ b/SERNAC/Cotizador Medicamentos Bioequivalentes/precio promedio por tipo (farmacia).xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-TRANSPARENCIA\SERNAC\Cotizador Medicamentos Bioequivalentes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2075E3A7-6B1D-4802-9B57-D9BB0A5062C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -262,8 +268,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,11 +332,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -372,7 +386,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -404,9 +418,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -438,6 +470,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -613,14 +663,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -643,7 +701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>16290</v>
       </c>
@@ -666,7 +724,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>16290</v>
       </c>
@@ -689,7 +747,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>16290</v>
       </c>
@@ -712,7 +770,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>16290</v>
       </c>
@@ -735,7 +793,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>16290</v>
       </c>
@@ -758,7 +816,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>16290</v>
       </c>
@@ -781,7 +839,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>16290</v>
       </c>
@@ -804,7 +862,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>16290</v>
       </c>
@@ -827,7 +885,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1880</v>
       </c>
@@ -850,7 +908,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1880</v>
       </c>
@@ -873,7 +931,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1880</v>
       </c>
@@ -896,7 +954,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1880</v>
       </c>
@@ -919,7 +977,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1880</v>
       </c>
@@ -942,7 +1000,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1880</v>
       </c>
@@ -965,7 +1023,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1880</v>
       </c>
@@ -988,7 +1046,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1880</v>
       </c>
@@ -1011,7 +1069,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1880</v>
       </c>
@@ -1034,7 +1092,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1880</v>
       </c>
@@ -1057,7 +1115,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1880</v>
       </c>
@@ -1080,7 +1138,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1880</v>
       </c>
@@ -1103,7 +1161,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1880</v>
       </c>
@@ -1126,7 +1184,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1880</v>
       </c>
@@ -1149,7 +1207,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>19399</v>
       </c>
@@ -1172,7 +1230,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19399</v>
       </c>
@@ -1195,7 +1253,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>19399</v>
       </c>
@@ -1218,7 +1276,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>19399</v>
       </c>
@@ -1241,7 +1299,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>19399</v>
       </c>
@@ -1264,7 +1322,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>19399</v>
       </c>
@@ -1287,7 +1345,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>19399</v>
       </c>
@@ -1310,7 +1368,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>19399</v>
       </c>
@@ -1333,7 +1391,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>19399</v>
       </c>
@@ -1356,7 +1414,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>19399</v>
       </c>
@@ -1379,7 +1437,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>19399</v>
       </c>
@@ -1402,7 +1460,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>19399</v>
       </c>
@@ -1425,7 +1483,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>19399</v>
       </c>
@@ -1448,7 +1506,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>19399</v>
       </c>
@@ -1471,7 +1529,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>19399</v>
       </c>
@@ -1494,7 +1552,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>14549</v>
       </c>
@@ -1517,7 +1575,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>19399</v>
       </c>
@@ -1540,7 +1598,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>19399</v>
       </c>
@@ -1563,7 +1621,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>19399</v>
       </c>
@@ -1586,7 +1644,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>19399</v>
       </c>
@@ -1609,7 +1667,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>19399</v>
       </c>
@@ -1632,7 +1690,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>19399</v>
       </c>
@@ -1655,7 +1713,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>19399</v>
       </c>
@@ -1678,7 +1736,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>19399</v>
       </c>
@@ -1701,7 +1759,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>19399</v>
       </c>
@@ -1724,7 +1782,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>19399</v>
       </c>
@@ -1747,7 +1805,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>19399</v>
       </c>
@@ -1770,7 +1828,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>19399</v>
       </c>
@@ -1793,7 +1851,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>19399</v>
       </c>
@@ -1816,7 +1874,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>19399</v>
       </c>
@@ -1839,7 +1897,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>12990</v>
       </c>
@@ -1862,7 +1920,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>12990</v>
       </c>
@@ -1885,7 +1943,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>12990</v>
       </c>
@@ -1908,7 +1966,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>12990</v>
       </c>
@@ -1931,7 +1989,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>12990</v>
       </c>
@@ -1954,7 +2012,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>12990</v>
       </c>
@@ -1977,7 +2035,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>12990</v>
       </c>
@@ -2000,7 +2058,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>12990</v>
       </c>
@@ -2023,7 +2081,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>12990</v>
       </c>
@@ -2046,7 +2104,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>12990</v>
       </c>
@@ -2069,7 +2127,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>12990</v>
       </c>
@@ -2092,7 +2150,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>12990</v>
       </c>
@@ -2115,7 +2173,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>12990</v>
       </c>
@@ -2138,7 +2196,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>12990</v>
       </c>
@@ -2161,7 +2219,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>12990</v>
       </c>
@@ -2184,7 +2242,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>12990</v>
       </c>
@@ -2207,7 +2265,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>12990</v>
       </c>
@@ -2230,7 +2288,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>12990</v>
       </c>
@@ -2253,7 +2311,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>12990</v>
       </c>
@@ -2276,7 +2334,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>12990</v>
       </c>
@@ -2299,7 +2357,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>12990</v>
       </c>
@@ -2322,7 +2380,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>12990</v>
       </c>
@@ -2345,7 +2403,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>13990</v>
       </c>
@@ -2368,7 +2426,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>14990</v>
       </c>
@@ -2391,7 +2449,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>14990</v>
       </c>
@@ -2414,7 +2472,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>14990</v>
       </c>
@@ -2437,7 +2495,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>14990</v>
       </c>
@@ -2460,7 +2518,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>17590</v>
       </c>
@@ -2483,7 +2541,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>17590</v>
       </c>
@@ -2506,7 +2564,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>17590</v>
       </c>
@@ -2529,7 +2587,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>17590</v>
       </c>
@@ -2552,7 +2610,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>17590</v>
       </c>
@@ -2575,7 +2633,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>17590</v>
       </c>
